--- a/config/excel/BattleView.xlsx
+++ b/config/excel/BattleView.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE79A62-B3CB-47A7-BDA4-2983DAC061CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAE678-72FF-4BB1-AFCC-EFB857389910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -618,6 +618,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -625,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,6 +701,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2459,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2953,7 +2972,7 @@
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>100101</v>
       </c>
       <c r="D7" s="10">
         <v>10</v>
@@ -2962,115 +2981,513 @@
         <v>-5</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>62.5</v>
-      </c>
-      <c r="K7" s="6">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
       </c>
       <c r="L7" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6">
-        <v>37.5</v>
-      </c>
-      <c r="N7" s="6">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
       </c>
       <c r="O7" s="6">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="6" t="str">
         <f>E7&amp;","&amp;H7&amp;","&amp;K7&amp;","&amp;N7</f>
-        <v>-5,-5,-3,-3</v>
+        <v>-5,0,0,0</v>
       </c>
       <c r="R7" s="6" t="str">
         <f>F7&amp;","&amp;I7&amp;","&amp;L7&amp;","&amp;O7</f>
-        <v>2,-2,4,-4</v>
+        <v>0,0,0,0</v>
       </c>
       <c r="S7" s="6" t="str">
         <f>G7&amp;","&amp;J7&amp;","&amp;M7&amp;","&amp;P7</f>
-        <v>0.875,62.5,37.5,12.5</v>
+        <v>0.85,0,0,0</v>
       </c>
       <c r="T7" s="6">
         <v>1</v>
       </c>
       <c r="U7" s="6">
+        <v>-2</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="W7" s="6">
         <v>1</v>
       </c>
-      <c r="V7" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="W7" s="6">
-        <v>-1</v>
-      </c>
       <c r="X7" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="10">
         <v>0.6</v>
       </c>
-      <c r="AC7" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>-3</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>-3</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0.3</v>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="22">
+        <v>0</v>
       </c>
       <c r="AL7" s="6" t="str">
         <f>T7&amp;","&amp;W7&amp;","&amp;Z7&amp;","&amp;AC7&amp;","&amp;AF7&amp;","&amp;AI7</f>
-        <v>1,-1,2,-2,3,-3</v>
+        <v>1,1,0,0,0,0</v>
       </c>
       <c r="AM7" s="6" t="str">
         <f>U7&amp;","&amp;X7&amp;","&amp;AA7&amp;","&amp;AD7&amp;","&amp;AG7&amp;","&amp;AJ7</f>
-        <v>1,-1,2,-2,3,-3</v>
+        <v>-2,2,0,0,0,0</v>
       </c>
       <c r="AN7" s="6" t="str">
         <f>V7&amp;","&amp;Y7&amp;","&amp;AB7&amp;","&amp;AE7&amp;","&amp;AH7&amp;","&amp;AK7</f>
-        <v>0.8,0.7,0.6,0.5,0.4,0.3</v>
+        <v>0.4,0.6,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <v>100201</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f>E8&amp;","&amp;H8&amp;","&amp;K8&amp;","&amp;N8</f>
+        <v>-5,-5,0,0</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f>F8&amp;","&amp;I8&amp;","&amp;L8&amp;","&amp;O8</f>
+        <v>2,-2,0,0</v>
+      </c>
+      <c r="S8" s="6" t="str">
+        <f>G8&amp;","&amp;J8&amp;","&amp;M8&amp;","&amp;P8</f>
+        <v>0.5,0,0,0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>-2</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="6" t="str">
+        <f t="shared" ref="AL8:AL11" si="0">T8&amp;","&amp;W8&amp;","&amp;Z8&amp;","&amp;AC8&amp;","&amp;AF8&amp;","&amp;AI8</f>
+        <v>1,1,4,0,0,0</v>
+      </c>
+      <c r="AM8" s="6" t="str">
+        <f t="shared" ref="AM8:AM11" si="1">U8&amp;","&amp;X8&amp;","&amp;AA8&amp;","&amp;AD8&amp;","&amp;AG8&amp;","&amp;AJ8</f>
+        <v>-2,2,0,0,0,0</v>
+      </c>
+      <c r="AN8" s="6" t="str">
+        <f t="shared" ref="AN8:AN11" si="2">V8&amp;","&amp;Y8&amp;","&amp;AB8&amp;","&amp;AE8&amp;","&amp;AH8&amp;","&amp;AK8</f>
+        <v>0.4,0.6,0.85,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <v>100301</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>-3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="K9" s="10">
+        <v>-6</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f t="shared" ref="Q9:Q11" si="3">E9&amp;","&amp;H9&amp;","&amp;K9&amp;","&amp;N9</f>
+        <v>-3,-3,-6,0</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f t="shared" ref="R9:R11" si="4">F9&amp;","&amp;I9&amp;","&amp;L9&amp;","&amp;O9</f>
+        <v>3,-3,0,0</v>
+      </c>
+      <c r="S9" s="6" t="str">
+        <f t="shared" ref="S9:S11" si="5">G9&amp;","&amp;J9&amp;","&amp;M9&amp;","&amp;P9</f>
+        <v>0.6,0.45,0.85,0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>-5</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="W9" s="10">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,5,5,1,0</v>
+      </c>
+      <c r="AM9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>-5,5,-2,2,0,0</v>
+      </c>
+      <c r="AN9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0.6,0.4,0.2,0,0,0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <v>100401</v>
+      </c>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="K10" s="10">
+        <v>-5</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="N10" s="10">
+        <v>-5</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-2</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-3,-3,-5,-5</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>4,-4,2,-2</v>
+      </c>
+      <c r="S10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0.6,0.45,0.85,0.2</v>
+      </c>
+      <c r="T10" s="10">
+        <v>6</v>
+      </c>
+      <c r="U10" s="10">
+        <v>-5</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="W10" s="10">
+        <v>6</v>
+      </c>
+      <c r="X10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Z10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI10" s="23">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>6,6,2,4,4,6</v>
+      </c>
+      <c r="AM10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>-5,5,0,-3,3,0</v>
+      </c>
+      <c r="AN10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2,0.3,0.6,0.4,0.5,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>100501</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>,,,</v>
+      </c>
+      <c r="R11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>,,,</v>
+      </c>
+      <c r="S11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>,,,</v>
+      </c>
+      <c r="AL11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>,,,,,</v>
+      </c>
+      <c r="AM11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>,,,,,</v>
+      </c>
+      <c r="AN11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>,,,,,</v>
       </c>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.2">

--- a/config/excel/BattleView.xlsx
+++ b/config/excel/BattleView.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAE678-72FF-4BB1-AFCC-EFB857389910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C192A6-4003-46D2-A03E-81CCE49DBD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleView" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="127">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>战斗区域id</t>
@@ -407,6 +404,163 @@
   </si>
   <si>
     <t>敌军6COM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方1旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位1
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方2旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方3旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方4旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军单位初始旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参展单位初始旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军单位旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军1旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军2旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位2
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军3旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位3
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军4旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位4
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军5旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位5
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军6旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位6
+旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军单位初始旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位
+初始COM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参战单位
+初始旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军单位旋转值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军单位x坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军单位z坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usRotation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyRotation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域矩形部分的长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配0，为圆
+&gt;0，胶囊体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗区域矩形长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -618,19 +772,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -638,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,18 +844,40 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="49">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -868,16 +1031,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1010,6 +1192,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1136,6 +1337,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1262,6 +1482,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1388,6 +1627,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1514,6 +1772,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1582,73 +1859,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1697,6 +1917,101 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1823,6 +2138,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1949,6 +2283,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1975,16 +2328,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2017,16 +2370,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2075,6 +2428,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2101,16 +2473,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2172,47 +2586,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:AN23" totalsRowShown="0">
-  <autoFilter ref="C1:AN23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:BA23" totalsRowShown="0">
+  <autoFilter ref="C1:BA23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="51">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="战斗区域id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="战斗区域半径"/>
-    <tableColumn id="4" xr3:uid="{557F8F05-E8A7-4F08-891C-82E18D7281F1}" name="己方1坐标x" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{D52A2CBB-C0CE-4AD8-A106-81D731606B22}" name="己方1坐标z" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{18BC1DA7-6FA2-4D92-BC41-5FAE2E563624}" name="己方1COM" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{184FBD86-9042-40D3-B47A-214D7DEAC5C2}" name="己方2坐标x" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{94A0BC22-3FCB-4D47-BD47-0395D805D781}" name="己方2坐标z" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B113E62B-D16A-4630-AECB-511168DCEB65}" name="己方2COM" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{B11AC1B1-9E79-4DEE-9907-3F07EEA53AAB}" name="己方3坐标x" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{93D7ABC7-6C4E-4F29-90D8-ADDC36A9BFC4}" name="己方3坐标z" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{30E201F9-4112-4962-A850-F4591CC3C184}" name="己方3COM" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{0B0DC9BA-E233-46A9-8C93-D2D70120330C}" name="己方4坐标x" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{263C91E4-525F-4CAB-A5CC-411ABD07ABFA}" name="己方4坐标z" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{5B1099C0-D0D3-4B2E-9538-6BA3F9AAABA9}" name="己方4COM" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A7BF1A4A-17F0-4335-B19B-590A07949E1A}" name="友军单位坐标x" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{D18D839A-6B9C-4F39-AC94-E1D22BB1E86C}" name="友军单位坐标z" dataDxfId="22"/>
-    <tableColumn id="35" xr3:uid="{F59A7D33-C0EA-4A6F-9B49-B5A6621D37DD}" name="友军单位初始COM" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{D32EE3F9-05C4-45A4-ADD9-20C36870C887}" name="敌军1坐标x" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{27091476-3702-41AD-8366-49C0F9B8ED5E}" name="敌军1坐标z" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{FF54BD68-3C4B-4D09-8EED-6437F9A11ADA}" name="敌军1COM" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{969E1FCB-A4CF-4FC1-AFD1-E6E286F8E0F2}" name="敌军2坐标x" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{4FD1654A-B06E-4B6A-BEED-C5A88BEED9AC}" name="敌军2坐标z" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{0AF8E7CF-64CE-47A2-8614-8716C41C2BC7}" name="敌军2COM" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{AF7BB245-B3A6-4AB8-968A-95C1EAE37BD5}" name="敌军3坐标x" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{336CD48C-296F-4676-B26D-072793721F63}" name="敌军3坐标z" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{81E4E4C2-98B9-4871-8226-8428D283C09D}" name="敌军3COM" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{ECE5C8B9-E945-41FB-9D0E-E6AE3F11A947}" name="敌军4坐标x" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{E80E1B30-3751-4EC4-9904-0E909CAB1407}" name="敌军4坐标z" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{5A1D5A9B-85BC-45F6-9AAD-A7E875A053D6}" name="敌军4COM" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{11E19B55-F53D-47C4-969A-AE07D5EE23E3}" name="敌军5坐标x" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{64A35B77-5A31-4899-880D-378F430A32A8}" name="敌军5坐标z" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{B957C99A-E2AE-44C6-9169-0BCDD85A6410}" name="敌军5COM" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{FE6883FC-52B6-4983-9E4B-9C1E49C50985}" name="敌军6坐标x" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{2E2A8B89-34B0-4D89-AFAD-04F0D5BCF558}" name="敌军6坐标z" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{5513793F-FF12-43AC-B4FC-410AEE8FB110}" name="敌军6COM" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{F4446EC4-FDAC-4C33-8113-3828E7D927B0}" name="敌军单位坐标x2" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{C32164B4-9980-4FE1-A3EA-51A2C388A519}" name="敌军单位坐标z3" dataDxfId="1"/>
-    <tableColumn id="38" xr3:uid="{26544265-980C-481C-A86F-A22DA7821A8F}" name="敌军单位初始COM4" dataDxfId="0"/>
+    <tableColumn id="52" xr3:uid="{BA20EEFB-B842-433B-9511-E18B869C9F4C}" name="战斗区域矩形部分的长度" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{557F8F05-E8A7-4F08-891C-82E18D7281F1}" name="己方1坐标x" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{D52A2CBB-C0CE-4AD8-A106-81D731606B22}" name="己方1坐标z" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{18BC1DA7-6FA2-4D92-BC41-5FAE2E563624}" name="己方1COM" dataDxfId="46"/>
+    <tableColumn id="39" xr3:uid="{87296A5D-E32E-46D9-B0C2-6D680FC92C28}" name="己方1旋转值" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{184FBD86-9042-40D3-B47A-214D7DEAC5C2}" name="己方2坐标x" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{94A0BC22-3FCB-4D47-BD47-0395D805D781}" name="己方2坐标z" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{B113E62B-D16A-4630-AECB-511168DCEB65}" name="己方2COM" dataDxfId="42"/>
+    <tableColumn id="40" xr3:uid="{90155AD5-69DB-4139-8093-71D05723679A}" name="己方2旋转值" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{B11AC1B1-9E79-4DEE-9907-3F07EEA53AAB}" name="己方3坐标x" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{93D7ABC7-6C4E-4F29-90D8-ADDC36A9BFC4}" name="己方3坐标z" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{30E201F9-4112-4962-A850-F4591CC3C184}" name="己方3COM" dataDxfId="38"/>
+    <tableColumn id="41" xr3:uid="{C65A0197-A5C6-4CC3-A41E-64A01CA4CB13}" name="己方3旋转值" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{0B0DC9BA-E233-46A9-8C93-D2D70120330C}" name="己方4坐标x" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{263C91E4-525F-4CAB-A5CC-411ABD07ABFA}" name="己方4坐标z" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{5B1099C0-D0D3-4B2E-9538-6BA3F9AAABA9}" name="己方4COM" dataDxfId="34"/>
+    <tableColumn id="42" xr3:uid="{95B778D3-97AA-4811-89E9-21CF78EF94E3}" name="己方4旋转值" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{A7BF1A4A-17F0-4335-B19B-590A07949E1A}" name="友军单位坐标x" dataDxfId="32"/>
+    <tableColumn id="34" xr3:uid="{D18D839A-6B9C-4F39-AC94-E1D22BB1E86C}" name="友军单位坐标z" dataDxfId="31"/>
+    <tableColumn id="35" xr3:uid="{F59A7D33-C0EA-4A6F-9B49-B5A6621D37DD}" name="友军单位初始COM" dataDxfId="30"/>
+    <tableColumn id="43" xr3:uid="{82DC9004-0875-41B5-9648-7EB7018F9F16}" name="友军单位初始旋转值" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{D32EE3F9-05C4-45A4-ADD9-20C36870C887}" name="敌军1坐标x" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{27091476-3702-41AD-8366-49C0F9B8ED5E}" name="敌军1坐标z" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{FF54BD68-3C4B-4D09-8EED-6437F9A11ADA}" name="敌军1COM" dataDxfId="26"/>
+    <tableColumn id="44" xr3:uid="{6CFA05FE-D8FC-4D7B-B01E-09ED18E65D44}" name="敌军1旋转值" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{969E1FCB-A4CF-4FC1-AFD1-E6E286F8E0F2}" name="敌军2坐标x" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{4FD1654A-B06E-4B6A-BEED-C5A88BEED9AC}" name="敌军2坐标z" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{0AF8E7CF-64CE-47A2-8614-8716C41C2BC7}" name="敌军2COM" dataDxfId="22"/>
+    <tableColumn id="45" xr3:uid="{32D66185-34E0-4903-B68B-B58FEEB034B2}" name="敌军2旋转值" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{AF7BB245-B3A6-4AB8-968A-95C1EAE37BD5}" name="敌军3坐标x" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{336CD48C-296F-4676-B26D-072793721F63}" name="敌军3坐标z" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{81E4E4C2-98B9-4871-8226-8428D283C09D}" name="敌军3COM" dataDxfId="18"/>
+    <tableColumn id="46" xr3:uid="{B693653C-6EF1-40D4-B35C-B170E08494C9}" name="敌军3旋转值" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{ECE5C8B9-E945-41FB-9D0E-E6AE3F11A947}" name="敌军4坐标x" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{E80E1B30-3751-4EC4-9904-0E909CAB1407}" name="敌军4坐标z" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{5A1D5A9B-85BC-45F6-9AAD-A7E875A053D6}" name="敌军4COM" dataDxfId="14"/>
+    <tableColumn id="47" xr3:uid="{10DDF5E5-8DB7-4886-956B-6C280D689CA9}" name="敌军4旋转值" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{11E19B55-F53D-47C4-969A-AE07D5EE23E3}" name="敌军5坐标x" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{64A35B77-5A31-4899-880D-378F430A32A8}" name="敌军5坐标z" dataDxfId="11"/>
+    <tableColumn id="30" xr3:uid="{B957C99A-E2AE-44C6-9169-0BCDD85A6410}" name="敌军5COM" dataDxfId="10"/>
+    <tableColumn id="48" xr3:uid="{154757F1-535E-46EE-BCC3-3DC08E4A217A}" name="敌军5旋转值" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{FE6883FC-52B6-4983-9E4B-9C1E49C50985}" name="敌军6坐标x" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{2E2A8B89-34B0-4D89-AFAD-04F0D5BCF558}" name="敌军6坐标z" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{5513793F-FF12-43AC-B4FC-410AEE8FB110}" name="敌军6COM" dataDxfId="6"/>
+    <tableColumn id="49" xr3:uid="{72B96E7C-8296-4429-B1E1-C3C8CE7F72F7}" name="敌军6旋转值" dataDxfId="5"/>
+    <tableColumn id="36" xr3:uid="{F4446EC4-FDAC-4C33-8113-3828E7D927B0}" name="敌军单位坐标x2" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{C32164B4-9980-4FE1-A3EA-51A2C388A519}" name="敌军单位坐标z3" dataDxfId="3"/>
+    <tableColumn id="38" xr3:uid="{26544265-980C-481C-A86F-A22DA7821A8F}" name="敌军单位初始COM4" dataDxfId="2"/>
+    <tableColumn id="50" xr3:uid="{0D2CC36B-B292-42DB-A640-7C6BB1F400D5}" name="敌军单位初始旋转值" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2476,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2487,31 +2914,43 @@
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="39" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.75" style="1" customWidth="1"/>
+    <col min="26" max="28" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" style="1" customWidth="1"/>
+    <col min="34" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" style="1" customWidth="1"/>
+    <col min="38" max="40" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.125" style="1" customWidth="1"/>
+    <col min="42" max="44" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.125" style="1" customWidth="1"/>
+    <col min="46" max="48" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.125" style="1" customWidth="1"/>
+    <col min="50" max="51" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2519,237 +2958,315 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="U1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AO1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AS1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AW1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="21" t="s">
-        <v>61</v>
+      <c r="BA1" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="O2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="S2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="U2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>32</v>
+      <c r="AZ2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +3276,9 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2771,21 +3290,23 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
+      <c r="V3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
@@ -2798,27 +3319,44 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
-      <c r="AL3" s="13" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="13" t="s">
-        <v>58</v>
+      <c r="BA3" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -2830,21 +3368,23 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
+      <c r="V4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
@@ -2857,17 +3397,32 @@
       <c r="AI4" s="13"/>
       <c r="AJ4" s="13"/>
       <c r="AK4" s="13"/>
-      <c r="AL4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>30</v>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA4" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2888,39 +3443,54 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="13"/>
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -2932,21 +3502,23 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
+      <c r="V6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -2959,17 +3531,32 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN6" s="13" t="s">
-        <v>26</v>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="6">
         <v>100101</v>
@@ -2978,31 +3565,31 @@
         <v>10</v>
       </c>
       <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>-5</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.85</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
       </c>
       <c r="M7" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -3013,86 +3600,127 @@
       <c r="P7" s="6">
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="str">
-        <f>E7&amp;","&amp;H7&amp;","&amp;K7&amp;","&amp;N7</f>
+      <c r="Q7" s="6">
+        <v>90</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>90</v>
+      </c>
+      <c r="V7" s="6" t="str">
+        <f t="shared" ref="V7:Y8" si="0">F7&amp;","&amp;J7&amp;","&amp;N7&amp;","&amp;R7</f>
         <v>-5,0,0,0</v>
       </c>
-      <c r="R7" s="6" t="str">
-        <f>F7&amp;","&amp;I7&amp;","&amp;L7&amp;","&amp;O7</f>
+      <c r="W7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>0,0,0,0</v>
       </c>
-      <c r="S7" s="6" t="str">
-        <f>G7&amp;","&amp;J7&amp;","&amp;M7&amp;","&amp;P7</f>
+      <c r="X7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>0.85,0,0,0</v>
       </c>
-      <c r="T7" s="6">
+      <c r="Y7" s="6" t="str">
+        <f>I7&amp;","&amp;M7&amp;","&amp;Q7&amp;","&amp;U7</f>
+        <v>90,90,90,90</v>
+      </c>
+      <c r="Z7" s="6">
         <v>1</v>
       </c>
-      <c r="U7" s="6">
+      <c r="AA7" s="6">
         <v>-2</v>
       </c>
-      <c r="V7" s="10">
+      <c r="AB7" s="10">
         <v>0.4</v>
       </c>
-      <c r="W7" s="6">
+      <c r="AC7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AD7" s="6">
         <v>1</v>
       </c>
-      <c r="X7" s="6">
+      <c r="AE7" s="6">
         <v>2</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="AF7" s="10">
         <v>0.6</v>
       </c>
-      <c r="Z7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="6" t="str">
-        <f>T7&amp;","&amp;W7&amp;","&amp;Z7&amp;","&amp;AC7&amp;","&amp;AF7&amp;","&amp;AI7</f>
+      <c r="AG7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AX7" s="6" t="str">
+        <f>Z7&amp;","&amp;AD7&amp;","&amp;AH7&amp;","&amp;AL7&amp;","&amp;AP7&amp;","&amp;AT7</f>
         <v>1,1,0,0,0,0</v>
       </c>
-      <c r="AM7" s="6" t="str">
-        <f>U7&amp;","&amp;X7&amp;","&amp;AA7&amp;","&amp;AD7&amp;","&amp;AG7&amp;","&amp;AJ7</f>
+      <c r="AY7" s="6" t="str">
+        <f>AA7&amp;","&amp;AE7&amp;","&amp;AI7&amp;","&amp;AM7&amp;","&amp;AQ7&amp;","&amp;AU7</f>
         <v>-2,2,0,0,0,0</v>
       </c>
-      <c r="AN7" s="6" t="str">
-        <f>V7&amp;","&amp;Y7&amp;","&amp;AB7&amp;","&amp;AE7&amp;","&amp;AH7&amp;","&amp;AK7</f>
+      <c r="AZ7" s="6" t="str">
+        <f>AB7&amp;","&amp;AF7&amp;","&amp;AJ7&amp;","&amp;AN7&amp;","&amp;AR7&amp;","&amp;AV7</f>
         <v>0.4,0.6,0,0,0,0</v>
       </c>
+      <c r="BA7" s="6" t="str">
+        <f>AC7&amp;","&amp;AG7&amp;","&amp;AK7&amp;","&amp;AO7&amp;","&amp;AS7&amp;","&amp;AW7</f>
+        <v>-90,-90,-90,-90,-90,-90</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C8" s="6">
         <v>100201</v>
       </c>
@@ -3100,31 +3728,31 @@
         <v>10</v>
       </c>
       <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>-5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="6">
         <v>0.5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="6">
+        <v>90</v>
+      </c>
+      <c r="J8" s="6">
         <v>-5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="6">
         <v>-2</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
       <c r="L8" s="6">
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -3135,86 +3763,127 @@
       <c r="P8" s="6">
         <v>0</v>
       </c>
-      <c r="Q8" s="6" t="str">
-        <f>E8&amp;","&amp;H8&amp;","&amp;K8&amp;","&amp;N8</f>
+      <c r="Q8" s="6">
+        <v>90</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>90</v>
+      </c>
+      <c r="V8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>-5,-5,0,0</v>
       </c>
-      <c r="R8" s="6" t="str">
-        <f>F8&amp;","&amp;I8&amp;","&amp;L8&amp;","&amp;O8</f>
+      <c r="W8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>2,-2,0,0</v>
       </c>
-      <c r="S8" s="6" t="str">
-        <f>G8&amp;","&amp;J8&amp;","&amp;M8&amp;","&amp;P8</f>
+      <c r="X8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>0.5,0,0,0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>90,90,90,90</v>
+      </c>
+      <c r="Z8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="6">
+      <c r="AA8" s="6">
         <v>-2</v>
       </c>
-      <c r="V8" s="10">
+      <c r="AB8" s="10">
         <v>0.4</v>
       </c>
-      <c r="W8" s="6">
+      <c r="AC8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AD8" s="6">
         <v>1</v>
       </c>
-      <c r="X8" s="6">
+      <c r="AE8" s="6">
         <v>2</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="AF8" s="10">
         <v>0.6</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AG8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AH8" s="6">
         <v>4</v>
       </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
         <v>0.85</v>
       </c>
-      <c r="AC8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6" t="str">
-        <f t="shared" ref="AL8:AL11" si="0">T8&amp;","&amp;W8&amp;","&amp;Z8&amp;","&amp;AC8&amp;","&amp;AF8&amp;","&amp;AI8</f>
+      <c r="AK8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AT8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AX8" s="6" t="str">
+        <f t="shared" ref="AX8:AX11" si="1">Z8&amp;","&amp;AD8&amp;","&amp;AH8&amp;","&amp;AL8&amp;","&amp;AP8&amp;","&amp;AT8</f>
         <v>1,1,4,0,0,0</v>
       </c>
-      <c r="AM8" s="6" t="str">
-        <f t="shared" ref="AM8:AM11" si="1">U8&amp;","&amp;X8&amp;","&amp;AA8&amp;","&amp;AD8&amp;","&amp;AG8&amp;","&amp;AJ8</f>
+      <c r="AY8" s="6" t="str">
+        <f t="shared" ref="AY8:AY11" si="2">AA8&amp;","&amp;AE8&amp;","&amp;AI8&amp;","&amp;AM8&amp;","&amp;AQ8&amp;","&amp;AU8</f>
         <v>-2,2,0,0,0,0</v>
       </c>
-      <c r="AN8" s="6" t="str">
-        <f t="shared" ref="AN8:AN11" si="2">V8&amp;","&amp;Y8&amp;","&amp;AB8&amp;","&amp;AE8&amp;","&amp;AH8&amp;","&amp;AK8</f>
+      <c r="AZ8" s="6" t="str">
+        <f t="shared" ref="AZ8:BA11" si="3">AB8&amp;","&amp;AF8&amp;","&amp;AJ8&amp;","&amp;AN8&amp;","&amp;AR8&amp;","&amp;AV8</f>
         <v>0.4,0.6,0.85,0,0,0</v>
       </c>
+      <c r="BA8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-90,-90,-90,-90,-90,-90</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>100301</v>
       </c>
@@ -3222,121 +3891,162 @@
         <v>10</v>
       </c>
       <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <v>-3</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>0.6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
+        <v>90</v>
+      </c>
+      <c r="J9" s="10">
         <v>-3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="K9" s="10">
         <v>-3</v>
       </c>
-      <c r="J9" s="10">
+      <c r="L9" s="10">
         <v>0.45</v>
       </c>
-      <c r="K9" s="10">
+      <c r="M9" s="10">
+        <v>90</v>
+      </c>
+      <c r="N9" s="10">
         <v>-6</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
         <v>0.85</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6" t="str">
-        <f t="shared" ref="Q9:Q11" si="3">E9&amp;","&amp;H9&amp;","&amp;K9&amp;","&amp;N9</f>
+      <c r="Q9" s="10">
+        <v>90</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>90</v>
+      </c>
+      <c r="V9" s="6" t="str">
+        <f t="shared" ref="V9:V11" si="4">F9&amp;","&amp;J9&amp;","&amp;N9&amp;","&amp;R9</f>
         <v>-3,-3,-6,0</v>
       </c>
-      <c r="R9" s="6" t="str">
-        <f t="shared" ref="R9:R11" si="4">F9&amp;","&amp;I9&amp;","&amp;L9&amp;","&amp;O9</f>
+      <c r="W9" s="6" t="str">
+        <f t="shared" ref="W9:W11" si="5">G9&amp;","&amp;K9&amp;","&amp;O9&amp;","&amp;S9</f>
         <v>3,-3,0,0</v>
       </c>
-      <c r="S9" s="6" t="str">
-        <f t="shared" ref="S9:S11" si="5">G9&amp;","&amp;J9&amp;","&amp;M9&amp;","&amp;P9</f>
+      <c r="X9" s="6" t="str">
+        <f t="shared" ref="X9:X11" si="6">H9&amp;","&amp;L9&amp;","&amp;P9&amp;","&amp;T9</f>
         <v>0.6,0.45,0.85,0</v>
       </c>
-      <c r="T9" s="10">
+      <c r="Y9" s="6" t="str">
+        <f>I9&amp;","&amp;M9&amp;","&amp;Q9&amp;","&amp;U9</f>
+        <v>90,90,90,90</v>
+      </c>
+      <c r="Z9" s="10">
         <v>1</v>
       </c>
-      <c r="U9" s="10">
+      <c r="AA9" s="10">
         <v>-5</v>
       </c>
-      <c r="V9" s="10">
+      <c r="AB9" s="10">
         <v>0.6</v>
       </c>
-      <c r="W9" s="10">
+      <c r="AC9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="X9" s="10">
+      <c r="AE9" s="10">
         <v>5</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="AF9" s="10">
         <v>0.4</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="AG9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AH9" s="10">
         <v>5</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AI9" s="10">
         <v>-2</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AJ9" s="10">
         <v>0.2</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AK9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AL9" s="10">
         <v>5</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AM9" s="10">
         <v>2</v>
       </c>
-      <c r="AE9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="23">
+      <c r="AN9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AP9" s="10">
         <v>1</v>
       </c>
-      <c r="AG9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="AQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AX9" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>1,1,5,5,1,0</v>
       </c>
-      <c r="AM9" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="AY9" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>-5,5,-2,2,0,0</v>
       </c>
-      <c r="AN9" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="AZ9" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>0.6,0.4,0.2,0,0,0</v>
       </c>
+      <c r="BA9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>-90,-90,-90,-90,-90,-90</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>100401</v>
       </c>
@@ -3344,153 +4054,202 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>-3</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>0.6</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
+        <v>90</v>
+      </c>
+      <c r="J10" s="10">
         <v>-3</v>
       </c>
-      <c r="I10" s="10">
+      <c r="K10" s="10">
         <v>-4</v>
       </c>
-      <c r="J10" s="10">
+      <c r="L10" s="10">
         <v>0.45</v>
       </c>
-      <c r="K10" s="10">
-        <v>-5</v>
-      </c>
-      <c r="L10" s="10">
-        <v>2</v>
-      </c>
       <c r="M10" s="10">
-        <v>0.85</v>
+        <v>90</v>
       </c>
       <c r="N10" s="10">
         <v>-5</v>
       </c>
       <c r="O10" s="10">
+        <v>2</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>90</v>
+      </c>
+      <c r="R10" s="10">
+        <v>-5</v>
+      </c>
+      <c r="S10" s="10">
         <v>-2</v>
       </c>
-      <c r="P10" s="10">
+      <c r="T10" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q10" s="6" t="str">
+      <c r="U10" s="10">
+        <v>90</v>
+      </c>
+      <c r="V10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>-3,-3,-5,-5</v>
+      </c>
+      <c r="W10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>4,-4,2,-2</v>
+      </c>
+      <c r="X10" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>0.6,0.45,0.85,0.2</v>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f>I10&amp;","&amp;M10&amp;","&amp;Q10&amp;","&amp;U10</f>
+        <v>90,90,90,90</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>-5</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AK10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AO10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AX10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>6,6,2,4,4,6</v>
+      </c>
+      <c r="AY10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>-5,5,0,-3,3,0</v>
+      </c>
+      <c r="AZ10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-3,-3,-5,-5</v>
-      </c>
-      <c r="R10" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>4,-4,2,-2</v>
-      </c>
-      <c r="S10" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>0.6,0.45,0.85,0.2</v>
-      </c>
-      <c r="T10" s="10">
-        <v>6</v>
-      </c>
-      <c r="U10" s="10">
-        <v>-5</v>
-      </c>
-      <c r="V10" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="W10" s="10">
-        <v>6</v>
-      </c>
-      <c r="X10" s="10">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="Z10" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>-3</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>4</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>3</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI10" s="23">
-        <v>6</v>
-      </c>
-      <c r="AJ10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>6,6,2,4,4,6</v>
-      </c>
-      <c r="AM10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>-5,5,0,-3,3,0</v>
-      </c>
-      <c r="AN10" s="6" t="str">
-        <f t="shared" si="2"/>
         <v>0.2,0.3,0.6,0.4,0.5,0</v>
       </c>
+      <c r="BA10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>-90,-90,-90,-90,-90,-90</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>100501</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="Q11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>,,,</v>
-      </c>
-      <c r="R11" s="6" t="str">
+      <c r="E11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="6" t="str">
         <f t="shared" si="4"/>
         <v>,,,</v>
       </c>
-      <c r="S11" s="6" t="str">
+      <c r="W11" s="6" t="str">
         <f t="shared" si="5"/>
         <v>,,,</v>
       </c>
-      <c r="AL11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>,,,,,</v>
-      </c>
-      <c r="AM11" s="6" t="str">
+      <c r="X11" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>,,,</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,</v>
       </c>
-      <c r="AN11" s="6" t="str">
+      <c r="AY11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>,,,,,</v>
       </c>
+      <c r="AZ11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>,,,,,</v>
+      </c>
+      <c r="BA11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>,,,,,</v>
+      </c>
     </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -3529,6 +4288,19 @@
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config/excel/BattleView.xlsx
+++ b/config/excel/BattleView.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C192A6-4003-46D2-A03E-81CCE49DBD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A38268-A17E-4EE3-A9F1-B36C4D71B6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleView" sheetId="2" r:id="rId1"/>
@@ -779,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,9 +844,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,25 +857,6 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2567,6 +2545,25 @@
         </top>
         <bottom style="thin">
           <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2591,55 +2588,55 @@
   <tableColumns count="51">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="战斗区域id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="战斗区域半径"/>
-    <tableColumn id="52" xr3:uid="{BA20EEFB-B842-433B-9511-E18B869C9F4C}" name="战斗区域矩形部分的长度" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{557F8F05-E8A7-4F08-891C-82E18D7281F1}" name="己方1坐标x" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{D52A2CBB-C0CE-4AD8-A106-81D731606B22}" name="己方1坐标z" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{18BC1DA7-6FA2-4D92-BC41-5FAE2E563624}" name="己方1COM" dataDxfId="46"/>
-    <tableColumn id="39" xr3:uid="{87296A5D-E32E-46D9-B0C2-6D680FC92C28}" name="己方1旋转值" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{184FBD86-9042-40D3-B47A-214D7DEAC5C2}" name="己方2坐标x" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{94A0BC22-3FCB-4D47-BD47-0395D805D781}" name="己方2坐标z" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{B113E62B-D16A-4630-AECB-511168DCEB65}" name="己方2COM" dataDxfId="42"/>
-    <tableColumn id="40" xr3:uid="{90155AD5-69DB-4139-8093-71D05723679A}" name="己方2旋转值" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{B11AC1B1-9E79-4DEE-9907-3F07EEA53AAB}" name="己方3坐标x" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{93D7ABC7-6C4E-4F29-90D8-ADDC36A9BFC4}" name="己方3坐标z" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{30E201F9-4112-4962-A850-F4591CC3C184}" name="己方3COM" dataDxfId="38"/>
-    <tableColumn id="41" xr3:uid="{C65A0197-A5C6-4CC3-A41E-64A01CA4CB13}" name="己方3旋转值" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{0B0DC9BA-E233-46A9-8C93-D2D70120330C}" name="己方4坐标x" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{263C91E4-525F-4CAB-A5CC-411ABD07ABFA}" name="己方4坐标z" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{5B1099C0-D0D3-4B2E-9538-6BA3F9AAABA9}" name="己方4COM" dataDxfId="34"/>
-    <tableColumn id="42" xr3:uid="{95B778D3-97AA-4811-89E9-21CF78EF94E3}" name="己方4旋转值" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{A7BF1A4A-17F0-4335-B19B-590A07949E1A}" name="友军单位坐标x" dataDxfId="32"/>
-    <tableColumn id="34" xr3:uid="{D18D839A-6B9C-4F39-AC94-E1D22BB1E86C}" name="友军单位坐标z" dataDxfId="31"/>
-    <tableColumn id="35" xr3:uid="{F59A7D33-C0EA-4A6F-9B49-B5A6621D37DD}" name="友军单位初始COM" dataDxfId="30"/>
-    <tableColumn id="43" xr3:uid="{82DC9004-0875-41B5-9648-7EB7018F9F16}" name="友军单位初始旋转值" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{D32EE3F9-05C4-45A4-ADD9-20C36870C887}" name="敌军1坐标x" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{27091476-3702-41AD-8366-49C0F9B8ED5E}" name="敌军1坐标z" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{FF54BD68-3C4B-4D09-8EED-6437F9A11ADA}" name="敌军1COM" dataDxfId="26"/>
-    <tableColumn id="44" xr3:uid="{6CFA05FE-D8FC-4D7B-B01E-09ED18E65D44}" name="敌军1旋转值" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{969E1FCB-A4CF-4FC1-AFD1-E6E286F8E0F2}" name="敌军2坐标x" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{4FD1654A-B06E-4B6A-BEED-C5A88BEED9AC}" name="敌军2坐标z" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{0AF8E7CF-64CE-47A2-8614-8716C41C2BC7}" name="敌军2COM" dataDxfId="22"/>
-    <tableColumn id="45" xr3:uid="{32D66185-34E0-4903-B68B-B58FEEB034B2}" name="敌军2旋转值" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{AF7BB245-B3A6-4AB8-968A-95C1EAE37BD5}" name="敌军3坐标x" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{336CD48C-296F-4676-B26D-072793721F63}" name="敌军3坐标z" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{81E4E4C2-98B9-4871-8226-8428D283C09D}" name="敌军3COM" dataDxfId="18"/>
-    <tableColumn id="46" xr3:uid="{B693653C-6EF1-40D4-B35C-B170E08494C9}" name="敌军3旋转值" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{ECE5C8B9-E945-41FB-9D0E-E6AE3F11A947}" name="敌军4坐标x" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{E80E1B30-3751-4EC4-9904-0E909CAB1407}" name="敌军4坐标z" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{5A1D5A9B-85BC-45F6-9AAD-A7E875A053D6}" name="敌军4COM" dataDxfId="14"/>
-    <tableColumn id="47" xr3:uid="{10DDF5E5-8DB7-4886-956B-6C280D689CA9}" name="敌军4旋转值" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{11E19B55-F53D-47C4-969A-AE07D5EE23E3}" name="敌军5坐标x" dataDxfId="12"/>
-    <tableColumn id="29" xr3:uid="{64A35B77-5A31-4899-880D-378F430A32A8}" name="敌军5坐标z" dataDxfId="11"/>
-    <tableColumn id="30" xr3:uid="{B957C99A-E2AE-44C6-9169-0BCDD85A6410}" name="敌军5COM" dataDxfId="10"/>
-    <tableColumn id="48" xr3:uid="{154757F1-535E-46EE-BCC3-3DC08E4A217A}" name="敌军5旋转值" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{FE6883FC-52B6-4983-9E4B-9C1E49C50985}" name="敌军6坐标x" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{2E2A8B89-34B0-4D89-AFAD-04F0D5BCF558}" name="敌军6坐标z" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{5513793F-FF12-43AC-B4FC-410AEE8FB110}" name="敌军6COM" dataDxfId="6"/>
-    <tableColumn id="49" xr3:uid="{72B96E7C-8296-4429-B1E1-C3C8CE7F72F7}" name="敌军6旋转值" dataDxfId="5"/>
-    <tableColumn id="36" xr3:uid="{F4446EC4-FDAC-4C33-8113-3828E7D927B0}" name="敌军单位坐标x2" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{C32164B4-9980-4FE1-A3EA-51A2C388A519}" name="敌军单位坐标z3" dataDxfId="3"/>
-    <tableColumn id="38" xr3:uid="{26544265-980C-481C-A86F-A22DA7821A8F}" name="敌军单位初始COM4" dataDxfId="2"/>
-    <tableColumn id="50" xr3:uid="{0D2CC36B-B292-42DB-A640-7C6BB1F400D5}" name="敌军单位初始旋转值" dataDxfId="1"/>
+    <tableColumn id="52" xr3:uid="{BA20EEFB-B842-433B-9511-E18B869C9F4C}" name="战斗区域矩形部分的长度" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{557F8F05-E8A7-4F08-891C-82E18D7281F1}" name="己方1坐标x" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{D52A2CBB-C0CE-4AD8-A106-81D731606B22}" name="己方1坐标z" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{18BC1DA7-6FA2-4D92-BC41-5FAE2E563624}" name="己方1COM" dataDxfId="45"/>
+    <tableColumn id="39" xr3:uid="{87296A5D-E32E-46D9-B0C2-6D680FC92C28}" name="己方1旋转值" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{184FBD86-9042-40D3-B47A-214D7DEAC5C2}" name="己方2坐标x" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{94A0BC22-3FCB-4D47-BD47-0395D805D781}" name="己方2坐标z" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{B113E62B-D16A-4630-AECB-511168DCEB65}" name="己方2COM" dataDxfId="41"/>
+    <tableColumn id="40" xr3:uid="{90155AD5-69DB-4139-8093-71D05723679A}" name="己方2旋转值" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{B11AC1B1-9E79-4DEE-9907-3F07EEA53AAB}" name="己方3坐标x" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{93D7ABC7-6C4E-4F29-90D8-ADDC36A9BFC4}" name="己方3坐标z" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{30E201F9-4112-4962-A850-F4591CC3C184}" name="己方3COM" dataDxfId="37"/>
+    <tableColumn id="41" xr3:uid="{C65A0197-A5C6-4CC3-A41E-64A01CA4CB13}" name="己方3旋转值" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{0B0DC9BA-E233-46A9-8C93-D2D70120330C}" name="己方4坐标x" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{263C91E4-525F-4CAB-A5CC-411ABD07ABFA}" name="己方4坐标z" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{5B1099C0-D0D3-4B2E-9538-6BA3F9AAABA9}" name="己方4COM" dataDxfId="33"/>
+    <tableColumn id="42" xr3:uid="{95B778D3-97AA-4811-89E9-21CF78EF94E3}" name="己方4旋转值" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A7BF1A4A-17F0-4335-B19B-590A07949E1A}" name="友军单位坐标x" dataDxfId="31"/>
+    <tableColumn id="34" xr3:uid="{D18D839A-6B9C-4F39-AC94-E1D22BB1E86C}" name="友军单位坐标z" dataDxfId="30"/>
+    <tableColumn id="35" xr3:uid="{F59A7D33-C0EA-4A6F-9B49-B5A6621D37DD}" name="友军单位初始COM" dataDxfId="29"/>
+    <tableColumn id="43" xr3:uid="{82DC9004-0875-41B5-9648-7EB7018F9F16}" name="友军单位初始旋转值" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{D32EE3F9-05C4-45A4-ADD9-20C36870C887}" name="敌军1坐标x" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{27091476-3702-41AD-8366-49C0F9B8ED5E}" name="敌军1坐标z" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{FF54BD68-3C4B-4D09-8EED-6437F9A11ADA}" name="敌军1COM" dataDxfId="25"/>
+    <tableColumn id="44" xr3:uid="{6CFA05FE-D8FC-4D7B-B01E-09ED18E65D44}" name="敌军1旋转值" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{969E1FCB-A4CF-4FC1-AFD1-E6E286F8E0F2}" name="敌军2坐标x" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{4FD1654A-B06E-4B6A-BEED-C5A88BEED9AC}" name="敌军2坐标z" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{0AF8E7CF-64CE-47A2-8614-8716C41C2BC7}" name="敌军2COM" dataDxfId="21"/>
+    <tableColumn id="45" xr3:uid="{32D66185-34E0-4903-B68B-B58FEEB034B2}" name="敌军2旋转值" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{AF7BB245-B3A6-4AB8-968A-95C1EAE37BD5}" name="敌军3坐标x" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{336CD48C-296F-4676-B26D-072793721F63}" name="敌军3坐标z" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{81E4E4C2-98B9-4871-8226-8428D283C09D}" name="敌军3COM" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{B693653C-6EF1-40D4-B35C-B170E08494C9}" name="敌军3旋转值" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{ECE5C8B9-E945-41FB-9D0E-E6AE3F11A947}" name="敌军4坐标x" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{E80E1B30-3751-4EC4-9904-0E909CAB1407}" name="敌军4坐标z" dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{5A1D5A9B-85BC-45F6-9AAD-A7E875A053D6}" name="敌军4COM" dataDxfId="13"/>
+    <tableColumn id="47" xr3:uid="{10DDF5E5-8DB7-4886-956B-6C280D689CA9}" name="敌军4旋转值" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{11E19B55-F53D-47C4-969A-AE07D5EE23E3}" name="敌军5坐标x" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{64A35B77-5A31-4899-880D-378F430A32A8}" name="敌军5坐标z" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{B957C99A-E2AE-44C6-9169-0BCDD85A6410}" name="敌军5COM" dataDxfId="9"/>
+    <tableColumn id="48" xr3:uid="{154757F1-535E-46EE-BCC3-3DC08E4A217A}" name="敌军5旋转值" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{FE6883FC-52B6-4983-9E4B-9C1E49C50985}" name="敌军6坐标x" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{2E2A8B89-34B0-4D89-AFAD-04F0D5BCF558}" name="敌军6坐标z" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{5513793F-FF12-43AC-B4FC-410AEE8FB110}" name="敌军6COM" dataDxfId="5"/>
+    <tableColumn id="49" xr3:uid="{72B96E7C-8296-4429-B1E1-C3C8CE7F72F7}" name="敌军6旋转值" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{F4446EC4-FDAC-4C33-8113-3828E7D927B0}" name="敌军单位坐标x2" dataDxfId="3"/>
+    <tableColumn id="37" xr3:uid="{C32164B4-9980-4FE1-A3EA-51A2C388A519}" name="敌军单位坐标z3" dataDxfId="2"/>
+    <tableColumn id="38" xr3:uid="{26544265-980C-481C-A86F-A22DA7821A8F}" name="敌军单位初始COM4" dataDxfId="1"/>
+    <tableColumn id="50" xr3:uid="{0D2CC36B-B292-42DB-A640-7C6BB1F400D5}" name="敌军单位初始旋转值" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2905,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2944,9 +2941,10 @@
     <col min="45" max="45" width="15.125" style="1" customWidth="1"/>
     <col min="46" max="48" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="15.125" style="1" customWidth="1"/>
-    <col min="50" max="51" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2963,7 +2961,7 @@
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -3118,7 +3116,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>123</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -3737,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="6">
         <v>90</v>
@@ -3788,14 +3786,14 @@
       </c>
       <c r="X8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>0.5,0,0,0</v>
+        <v>0.6,0,0,0</v>
       </c>
       <c r="Y8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>90,90,90,90</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" s="6">
         <v>-2</v>
@@ -3807,7 +3805,7 @@
         <v>-90</v>
       </c>
       <c r="AD8" s="6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -3819,13 +3817,13 @@
         <v>-90</v>
       </c>
       <c r="AH8" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="6">
         <v>0</v>
       </c>
       <c r="AJ8" s="6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AK8" s="6">
         <v>-90</v>
@@ -3867,16 +3865,16 @@
         <v>-90</v>
       </c>
       <c r="AX8" s="6" t="str">
-        <f t="shared" ref="AX8:AX11" si="1">Z8&amp;","&amp;AD8&amp;","&amp;AH8&amp;","&amp;AL8&amp;","&amp;AP8&amp;","&amp;AT8</f>
-        <v>1,1,4,0,0,0</v>
+        <f t="shared" ref="AX8:AX10" si="1">Z8&amp;","&amp;AD8&amp;","&amp;AH8&amp;","&amp;AL8&amp;","&amp;AP8&amp;","&amp;AT8</f>
+        <v>2.5,2.5,1,0,0,0</v>
       </c>
       <c r="AY8" s="6" t="str">
-        <f t="shared" ref="AY8:AY11" si="2">AA8&amp;","&amp;AE8&amp;","&amp;AI8&amp;","&amp;AM8&amp;","&amp;AQ8&amp;","&amp;AU8</f>
+        <f t="shared" ref="AY8:AY10" si="2">AA8&amp;","&amp;AE8&amp;","&amp;AI8&amp;","&amp;AM8&amp;","&amp;AQ8&amp;","&amp;AU8</f>
         <v>-2,2,0,0,0,0</v>
       </c>
       <c r="AZ8" s="6" t="str">
-        <f t="shared" ref="AZ8:BA11" si="3">AB8&amp;","&amp;AF8&amp;","&amp;AJ8&amp;","&amp;AN8&amp;","&amp;AR8&amp;","&amp;AV8</f>
-        <v>0.4,0.6,0.85,0,0,0</v>
+        <f t="shared" ref="AZ8:BA10" si="3">AB8&amp;","&amp;AF8&amp;","&amp;AJ8&amp;","&amp;AN8&amp;","&amp;AR8&amp;","&amp;AV8</f>
+        <v>0.4,0.6,0.9,0,0,0</v>
       </c>
       <c r="BA8" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3900,7 +3898,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="10">
         <v>90</v>
@@ -3912,7 +3910,7 @@
         <v>-3</v>
       </c>
       <c r="L9" s="10">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="M9" s="10">
         <v>90</v>
@@ -3942,16 +3940,16 @@
         <v>90</v>
       </c>
       <c r="V9" s="6" t="str">
-        <f t="shared" ref="V9:V11" si="4">F9&amp;","&amp;J9&amp;","&amp;N9&amp;","&amp;R9</f>
+        <f t="shared" ref="V9:V10" si="4">F9&amp;","&amp;J9&amp;","&amp;N9&amp;","&amp;R9</f>
         <v>-3,-3,-6,0</v>
       </c>
       <c r="W9" s="6" t="str">
-        <f t="shared" ref="W9:W11" si="5">G9&amp;","&amp;K9&amp;","&amp;O9&amp;","&amp;S9</f>
+        <f t="shared" ref="W9:W10" si="5">G9&amp;","&amp;K9&amp;","&amp;O9&amp;","&amp;S9</f>
         <v>3,-3,0,0</v>
       </c>
       <c r="X9" s="6" t="str">
-        <f t="shared" ref="X9:X11" si="6">H9&amp;","&amp;L9&amp;","&amp;P9&amp;","&amp;T9</f>
-        <v>0.6,0.45,0.85,0</v>
+        <f t="shared" ref="X9:X10" si="6">H9&amp;","&amp;L9&amp;","&amp;P9&amp;","&amp;T9</f>
+        <v>0.5,0.3,0.85,0</v>
       </c>
       <c r="Y9" s="6" t="str">
         <f>I9&amp;","&amp;M9&amp;","&amp;Q9&amp;","&amp;U9</f>
@@ -4121,10 +4119,10 @@
         <v>90,90,90,90</v>
       </c>
       <c r="Z10" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="10">
         <v>0.2</v>
@@ -4133,10 +4131,10 @@
         <v>-90</v>
       </c>
       <c r="AD10" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="10">
         <v>0.3</v>
@@ -4145,10 +4143,10 @@
         <v>-90</v>
       </c>
       <c r="AH10" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="10">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ10" s="10">
         <v>0.6</v>
@@ -4157,10 +4155,10 @@
         <v>-90</v>
       </c>
       <c r="AL10" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM10" s="10">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="AN10" s="10">
         <v>0.4</v>
@@ -4169,10 +4167,10 @@
         <v>-90</v>
       </c>
       <c r="AP10" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ10" s="10">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="AR10" s="10">
         <v>0.5</v>
@@ -4194,11 +4192,11 @@
       </c>
       <c r="AX10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>6,6,2,4,4,6</v>
+        <v>0,5,5,2,2,6</v>
       </c>
       <c r="AY10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>-5,5,0,-3,3,0</v>
+        <v>0,3,-3,5,-5,0</v>
       </c>
       <c r="AZ10" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4216,37 +4214,160 @@
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="U11" s="22"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="10">
+        <v>90</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-3</v>
+      </c>
+      <c r="K11" s="10">
+        <v>-4</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="M11" s="10">
+        <v>90</v>
+      </c>
+      <c r="N11" s="10">
+        <v>-5</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>90</v>
+      </c>
+      <c r="R11" s="10">
+        <v>-5</v>
+      </c>
+      <c r="S11" s="10">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="10">
+        <v>90</v>
+      </c>
       <c r="V11" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>,,,</v>
+        <f t="shared" ref="V11" si="7">F11&amp;","&amp;J11&amp;","&amp;N11&amp;","&amp;R11</f>
+        <v>-3,-3,-5,-5</v>
       </c>
       <c r="W11" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>,,,</v>
+        <f t="shared" ref="W11" si="8">G11&amp;","&amp;K11&amp;","&amp;O11&amp;","&amp;S11</f>
+        <v>4,-4,2,-2</v>
       </c>
       <c r="X11" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>,,,</v>
-      </c>
-      <c r="Y11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>,,,,,</v>
-      </c>
-      <c r="AY11" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>,,,,,</v>
-      </c>
-      <c r="AZ11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>,,,,,</v>
-      </c>
-      <c r="BA11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>,,,,,</v>
+        <f t="shared" ref="X11" si="9">H11&amp;","&amp;L11&amp;","&amp;P11&amp;","&amp;T11</f>
+        <v>0.6,0.45,0.85,0.2</v>
+      </c>
+      <c r="Y11" s="6" t="str">
+        <f>I11&amp;","&amp;M11&amp;","&amp;Q11&amp;","&amp;U11</f>
+        <v>90,90,90,90</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>-5</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>-3</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>-90</v>
+      </c>
+      <c r="AX11" s="10" t="str">
+        <f t="shared" ref="AX11" si="10">Z11&amp;","&amp;AD11&amp;","&amp;AH11&amp;","&amp;AL11&amp;","&amp;AP11&amp;","&amp;AT11</f>
+        <v>6,6,2,4,4,6</v>
+      </c>
+      <c r="AY11" s="10" t="str">
+        <f t="shared" ref="AY11" si="11">AA11&amp;","&amp;AE11&amp;","&amp;AI11&amp;","&amp;AM11&amp;","&amp;AQ11&amp;","&amp;AU11</f>
+        <v>-5,5,0,-3,3,0</v>
+      </c>
+      <c r="AZ11" s="10" t="str">
+        <f t="shared" ref="AZ11" si="12">AB11&amp;","&amp;AF11&amp;","&amp;AJ11&amp;","&amp;AN11&amp;","&amp;AR11&amp;","&amp;AV11</f>
+        <v>0.2,0.3,0.6,0.4,0.5,0</v>
+      </c>
+      <c r="BA11" s="10" t="str">
+        <f t="shared" ref="BA11" si="13">AC11&amp;","&amp;AG11&amp;","&amp;AK11&amp;","&amp;AO11&amp;","&amp;AS11&amp;","&amp;AW11</f>
+        <v>-90,-90,-90,-90,-90,-90</v>
       </c>
     </row>
     <row r="23" spans="3:53" x14ac:dyDescent="0.2">
@@ -4305,8 +4426,9 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>